--- a/3.ehome/06-开发/数据库修改记录.xlsx
+++ b/3.ehome/06-开发/数据库修改记录.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="12630"/>
+    <workbookView windowWidth="24180" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
   <si>
     <t>序号</t>
   </si>
@@ -582,8 +582,10 @@
 AND c.del_flag = '0'</t>
   </si>
   <si>
+    <t>苏士鹏</t>
+  </si>
+  <si>
     <t>增加:物业缴费单子表——明细</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>drop table if exists Property_Bill_Detail;
@@ -607,14 +609,191 @@
    primary key (ID)
 );
 alter table Property_Bill_Detail comment '物业缴费单子表——明细';</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改订单-跟踪表，drop重建</t>
+  </si>
+  <si>
+    <t>create table order_track_bak
+as
+select * from order_track;
+drop table if exists Order_Track;
+/*==============================================================*/
+/* Table: Order_Track                                           */
+/*==============================================================*/
+create table Order_Track
+(
+   ID                   VARCHAR(64) not null comment '主键',
+   Order_ID             VARCHAR(64) not null comment '订单ID',
+   Order_No             VARCHAR(64) not null comment '订单号',
+   Order_Type           char(1) not null comment '订单类型:0商品类 1服务类 2 课程培训类 3场地预约类 4团购类',
+   State_Msg            VARCHAR(64) comment '跟踪状态PC',
+   Handle_Msg           VARCHAR(255) comment '处理信息PC',
+   State_Msg_Phone      VARCHAR(64) comment '跟踪状态Phone',
+   Handle_Msg_Phone     VARCHAR(255) comment '处理信息Phone',
+   Create_Name          VARCHAR(64) comment '操作账号',
+   Create_By            VARCHAR(64) comment '录入人',
+   Create_Date          datetime comment '创建时间',
+   Update_By            VARCHAR(64) comment '修改人',
+   Update_Date          datetime comment '修改时间',
+   Remarks              VARCHAR(255) comment '备注',
+   Del_Flag             char(1) comment '删除标记:0否1是',
+   primary key (ID)
+);
+alter table Order_Track comment '订单-跟踪';</t>
+  </si>
+  <si>
+    <t>增加数据库视图My_Order_View</t>
+  </si>
+  <si>
+    <t># 创建我的订单视图
+CREATE VIEW My_Order_View AS
+SELECT DISTINCT
+ a.ID,
+ a.Order_No,
+ a.Pay_Money,
+ a.Village_Info_ID,
+ a.Account_ID,
+ a.Module_Manage_ID,
+ 1 AS Order_Type,
+ '配送时间' AS Time_Label,
+ CONCAT(
+  IFNULL(a.Is_Start, ''),
+  ',',
+  IFNULL(a.Start_Time, ''),
+  ',',
+  IFNULL(a.End_Time, '')
+ ) AS Order_Time,
+ a.Create_Date,
+ b.Business_Name AS Show_Name,
+ b.Business_Pic
+FROM
+ Order_Goods a,
+ Business_Info b
+WHERE
+ a.Business_Info_ID = b.ID
+AND a.Del_Flag = '0'
+AND b.del_flag = '0'
+UNION ALL
+SELECT DISTINCT
+ a.ID,
+ a.Order_No,
+ a.Pay_Money,
+ a.Village_Info_ID,
+ a.Account_ID,
+ a.Module_Manage_ID,
+ 2 AS Order_Type,
+ '预约时间' AS Time_Label,
+ CONCAT(
+  IFNULL(a.Is_Start, ''),
+  ',',
+  IFNULL(a.Start_Time, ''),
+  ',',
+  IFNULL(a.End_Time, '')
+ ) AS Order_Time,
+ a.Create_Date,
+ b.Business_Name AS Show_Name,
+ b.Business_Pic
+FROM
+ Order_Service a,
+ Business_Info b
+WHERE
+ a.Business_Info_ID = b.ID
+AND a.Del_Flag = '0'
+AND b.del_flag = '0'
+UNION ALL
+SELECT DISTINCT
+ a.ID,
+ a.Order_No,
+ a.Pay_Money,
+ a.Village_Info_ID,
+ a.Account_ID,
+ a.Module_Manage_ID,
+ 3 AS Order_Type,
+ '上课时间' AS Time_Label,
+ CONCAT(
+  IFNULL(c.Start_Time, NOW()),
+  ',',
+  IFNULL(c.End_Time, NOW())
+ ) AS Order_Time,
+ a.Create_Date,
+ b.Business_Name AS Show_Name,
+ b.Business_Pic
+FROM
+ Order_Lesson a,
+ Business_Info b,
+ Lesson_Info c
+WHERE
+ a.Business_Info_ID = b.ID
+AND a.Lesson_Info_ID = c.ID
+AND a.Del_Flag = '0'
+AND b.del_flag = '0'
+AND c.Del_Flag = '0'
+UNION ALL
+SELECT DISTINCT
+ a.ID,
+ a.Order_No,
+ a.Pay_Money,
+ a.Village_Info_ID,
+ a.Account_ID,
+ a.Module_Manage_ID,
+ 4 AS Order_Type,
+ '预约时间' AS Time_Label,
+ c.Appointment_Time AS Order_Time,
+ a.Create_Date,
+ b.Business_Name AS Show_Name,
+ b.Business_Pic
+FROM
+ Order_Field a,
+ Business_Info b,
+ Order_Field_List c
+WHERE
+ a.Business_Info_ID = b.ID
+AND a.ID = c.Order_Field_ID
+AND a.Del_Flag = '0'
+AND b.del_flag = '0'
+AND c.Del_Flag = '0'
+UNION ALL
+SELECT DISTINCT
+ a.ID,
+ a.Order_No,
+ a.Pay_Money,
+ a.Village_Info_ID,
+ a.Account_ID,
+ a.Module_Manage_ID,
+ 5 AS Order_Type,
+ '下单时间' AS Time_Label,
+ a.Create_Date AS Order_Time,
+ a.Create_Date,
+ a.Name AS Show_Name,
+ b.Business_Pic
+FROM
+ Order_Group_Purc a,
+ Business_Info b
+WHERE
+ a.Business_Info_ID = b.ID
+AND a.Del_Flag = '0'
+AND b.del_flag = '0'</t>
+  </si>
+  <si>
+    <t>商家结算子表和物业结算子表新增order_id字段</t>
+  </si>
+  <si>
+    <t>ALTER TABLE business_balance_detail ADD Order_Id VARCHAR(64)  AFTER Module_Id;
+ALTER TABLE property_balance_detail ADD Order_Id VARCHAR(64)  AFTER Module_Id;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -631,13 +810,151 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -650,8 +967,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -659,13 +1162,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -678,86 +1423,82 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A1:E16" totalsRowShown="0">
+  <autoFilter ref="A1:E16"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="序号"/>
+    <tableColumn id="2" name="修改时间"/>
+    <tableColumn id="3" name="修改内容"/>
+    <tableColumn id="4" name="sql脚本"/>
+    <tableColumn id="5" name="修改人"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -768,7 +1509,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1041,19 +1782,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="10.75" customWidth="1"/>
     <col min="3" max="3" width="34.5" customWidth="1"/>
@@ -1077,7 +1818,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="50.1" customHeight="1">
+    <row r="2" ht="65" customHeight="1" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1094,7 +1835,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="50.1" customHeight="1">
+    <row r="3" ht="65" customHeight="1" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1111,7 +1852,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="50.1" customHeight="1">
+    <row r="4" ht="65" customHeight="1" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1125,7 +1866,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="50.1" customHeight="1">
+    <row r="5" ht="65" customHeight="1" spans="1:5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1142,7 +1883,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="50.1" customHeight="1">
+    <row r="6" ht="65" customHeight="1" spans="1:5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1159,7 +1900,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="50.1" customHeight="1">
+    <row r="7" ht="65" customHeight="1" spans="1:5">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1176,7 +1917,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="94.5">
+    <row r="8" ht="65" customHeight="1" spans="1:5">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1193,7 +1934,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="53.25" customHeight="1">
+    <row r="9" ht="65" customHeight="1" spans="1:5">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1210,7 +1951,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="218.25" customHeight="1">
+    <row r="10" ht="65" customHeight="1" spans="1:5">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1227,7 +1968,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="93.95" customHeight="1">
+    <row r="11" ht="65" customHeight="1" spans="1:5">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1240,8 +1981,11 @@
       <c r="D11" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:5" ht="409.5">
+    <row r="12" ht="65" customHeight="1" spans="1:5">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1254,8 +1998,11 @@
       <c r="D12" s="3" t="s">
         <v>30</v>
       </c>
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="13" spans="1:5" ht="276" customHeight="1">
+    <row r="13" ht="65" customHeight="1" spans="1:4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1263,43 +2010,103 @@
         <v>42949</v>
       </c>
       <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" ht="65" customHeight="1" spans="1:5">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>42950</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" ht="65" customHeight="1" spans="1:5">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>42950</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>32</v>
+    </row>
+    <row r="16" ht="65" customHeight="1" spans="1:5">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <v>42951</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/3.ehome/06-开发/数据库修改记录.xlsx
+++ b/3.ehome/06-开发/数据库修改记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51">
   <si>
     <t>序号</t>
   </si>
@@ -31,6 +31,9 @@
   </si>
   <si>
     <t>修改人</t>
+  </si>
+  <si>
+    <t>执行状态</t>
   </si>
   <si>
     <t>修改app表property_bill建表语句,新增两个字段check_state和check_time，因该表第一次启用，因此直接附SQL脚本</t>
@@ -71,6 +74,9 @@
   </si>
   <si>
     <t>刘琦</t>
+  </si>
+  <si>
+    <t>已执行</t>
   </si>
   <si>
     <t>修改property_balance_detail表字段，去掉prod_type，修改business_balance_id为property_balance_id；
@@ -782,6 +788,141 @@
     <t>ALTER TABLE business_balance_detail ADD Order_Id VARCHAR(64)  AFTER Module_Id;
 ALTER TABLE property_balance_detail ADD Order_Id VARCHAR(64)  AFTER Module_Id;</t>
   </si>
+  <si>
+    <t>模块表增加字段</t>
+  </si>
+  <si>
+    <t>ALTER TABLE module_manage ADD Phone_Module_Code VARCHAR(2)  AFTER Business_Category_Dict_ID;</t>
+  </si>
+  <si>
+    <t>张良</t>
+  </si>
+  <si>
+    <t>退款表增加字段</t>
+  </si>
+  <si>
+    <t xml:space="preserve">drop table if exists Order_Refund_Info;
+/*==============================================================*/
+/* Table: Order_Refund_Info                                     */
+/*==============================================================*/
+create table Order_Refund_Info
+(
+   ID                   VARCHAR(64) not null comment '主键',
+   Order_ID             VARCHAR(64) not null comment '订单ID',
+   Order_No             VARCHAR(64) comment '订单号',
+   Transaction_Id       VARCHAR(32) comment '微信或支付宝支付交易号',
+   Order_Type           char(1) comment '订单类型:0商品类 1服务类 2 课程培训类 3场地预约类 4团购类',
+   Pay_Type             char(1) comment '订单支付方式',
+   Order_Money          decimal(12,2) comment '订单金额',
+   Type                 char(1) comment '终端类型(0 Android 1 IOS 2 商家后台)',
+   Module_Manage_ID     VARCHAR(64) comment '模块管理ID',
+   Prod_Type            VARCHAR(64) comment '产品模式：0商品购买  1服务预约  2课程购买  3场地预约',
+   Refund_Money         decimal(12,2) comment '退款金额',
+   Refund_No            VARCHAR(64) comment '退款单号',
+   Refund_Transaction_Id VARCHAR(32) comment '微信或支付宝退款交易号',
+   Refund_Type          char(1) comment '退款类型(0微信1支付宝2平台钱包)',
+   Refund_State         char(1) comment '退款状态:0待退款 1退款中  2退款成功   3退款失败',
+   Refund_Over_Time     datetime comment '退款完成时间',
+   Refund_Order_Group_Purc_List_Ids VARCHAR(6400) comment '订单-团购类子表-团购券清单表中ID集合',
+   Refund_Reason        VARCHAR(64) comment '退款原因',
+   Refund_Describe      VARCHAR(255) comment '退款吐槽',
+   Create_By            VARCHAR(64) comment '录入人',
+   Create_Date          datetime comment '创建时间',
+   Update_By            VARCHAR(64) comment '修改人',
+   Update_Date          datetime comment '修改时间',
+   Remarks              VARCHAR(255) comment '备注',
+   Del_Flag             char(1) comment '删除标记:0否1是',
+   primary key (ID)
+);
+alter table Order_Refund_Info comment '订单-退款信息';
+</t>
+  </si>
+  <si>
+    <t>致加手环新增三张表</t>
+  </si>
+  <si>
+    <t xml:space="preserve">drop table if exists Bracelet_Info;
+/*==============================================================*/
+/* Table: Bracelet_Info                                         */
+/*==============================================================*/
+create table Bracelet_Info
+(
+   ID                   varchar(64) not null,
+   Account_Id           varchar(64) not null comment '用户ID',
+   VillageInfo_Id       varchar(64) comment '楼盘ID',
+   Model                varchar(64) comment '类型',
+   Serial_Number        varchar(64) comment '序列号',
+   Name                 varchar(64) comment '名称',
+   Version              varchar(64) comment '版本号',
+   Target_Step          int default 0 comment '目标步数',
+   create_by            VARCHAR(64) comment '录入人',
+   create_date          datetime comment '录入时间',
+   update_by            VARCHAR(64) comment '修改人',
+   update_date          datetime comment '修改时间',
+   remarks              VARCHAR(255) comment '备注',
+   del_flag             char(1) comment '删除标记，0：正常；1：删除；2：审核',
+   primary key (ID)
+);
+alter table Bracelet_Info comment '手环信息';
+drop table if exists Bracelet_Exercise_Record;
+/*==============================================================*/
+/* Table: Bracelet_Exercise_Record                              */
+/*==============================================================*/
+create table Bracelet_Exercise_Record
+(
+   ID                   varchar(64) not null,
+   Account_ID           varchar(64) not null comment '会员ID',
+   VillageInfo_Id       varchar(64) not null comment '楼盘ID',
+   Bracelet_ID          varchar(64) not null comment '手环ID',
+   Record_date          date not null comment '记录日期',
+   Walk_Number          int default 0 comment '走步步数',
+   Walk_Mileage         decimal(10,2) default 0 comment '走步里程',
+   Walk_Calorie         decimal(10,2) default 0 comment '走步热量',
+   Run_Number           int default 0 comment '跑步步数',
+   Run_Mileage          decimal(10,2) default 0 comment '跑步里程',
+   Run_Calorie          decimal(10,2) default 0 comment '跑步热量',
+   create_by            VARCHAR(64) comment '录入人',
+   create_date          datetime comment '录入时间',
+   update_by            VARCHAR(64) comment '修改人',
+   update_date          datetime comment '修改时间',
+   remarks              VARCHAR(255) comment '备注',
+   del_flag             char(1) comment '删除标记，0：正常；1：删除；2：审核',
+   primary key (ID)
+);
+alter table Bracelet_Exercise_Record comment '每日运动记录';
+drop table if exists Bracelet_Sleep_Record;
+/*==============================================================*/
+/* Table: Bracelet_Sleep_Record                                 */
+/*==============================================================*/
+create table Bracelet_Sleep_Record
+(
+   ID                   varchar(64) not null,
+   Account_ID           varchar(64) not null comment '会员ID',
+   VillageInfo_Id       varchar(64) not null comment '楼盘ID',
+   Bracelet_ID          varchar(64) not null comment '手环ID',
+   Record_date          date not null comment '记录日期',
+   Sleep_Time           decimal(4,2) default 0 comment '睡眠时长',
+   Deep_Sleep_Time      decimal(4,2) default 0 comment '深睡时长',
+   Light_Sleep_Time     decimal(4,2) default 0 comment '浅睡时长',
+   Sleep_Start          datetime comment '睡眠时段开始',
+   Sleep_End            datetime comment '睡眠时段结束',
+   create_by            VARCHAR(64) comment '录入人',
+   create_date          datetime comment '录入时间',
+   update_by            VARCHAR(64) comment '修改人',
+   update_date          datetime comment '修改时间',
+   remarks              VARCHAR(255) comment '备注',
+   del_flag             char(1) comment '删除标记，0：正常；1：删除；2：审核',
+   primary key (ID)
+);
+alter table Bracelet_Sleep_Record comment '睡眠记录';
+</t>
+  </si>
+  <si>
+    <t>会员的优惠券表增加使用时间字段</t>
+  </si>
+  <si>
+    <t>alter table member_discount  add Use_Date datetime after order_id;</t>
+  </si>
 </sst>
 </file>
 
@@ -789,9 +930,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -810,14 +951,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -825,44 +958,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -885,17 +983,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -903,38 +1014,6 @@
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -953,6 +1032,68 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -969,187 +1110,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1160,21 +1301,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1189,50 +1315,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1256,7 +1338,66 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1268,10 +1409,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1280,137 +1421,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1419,9 +1560,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1488,14 +1626,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A1:E16" totalsRowShown="0">
-  <autoFilter ref="A1:E16"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A1:F20" totalsRowShown="0">
+  <autoFilter ref="A1:F20"/>
+  <tableColumns count="6">
     <tableColumn id="1" name="序号"/>
     <tableColumn id="2" name="修改时间"/>
     <tableColumn id="3" name="修改内容"/>
     <tableColumn id="4" name="sql脚本"/>
     <tableColumn id="5" name="修改人"/>
+    <tableColumn id="6" name="执行状态"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1786,22 +1925,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="10.75" customWidth="1"/>
     <col min="3" max="3" width="34.5" customWidth="1"/>
     <col min="4" max="4" width="69.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1817,8 +1956,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" ht="65" customHeight="1" spans="1:5">
+    <row r="2" ht="65" customHeight="1" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1826,16 +1968,19 @@
         <v>42936.75</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3" ht="65" customHeight="1" spans="1:5">
+    <row r="3" ht="65" customHeight="1" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1843,16 +1988,19 @@
         <v>42937</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="F3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="4" ht="65" customHeight="1" spans="1:5">
+    <row r="4" ht="65" customHeight="1" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1860,13 +2008,16 @@
         <v>42937</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="5" ht="65" customHeight="1" spans="1:5">
+    <row r="5" ht="65" customHeight="1" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1874,16 +2025,19 @@
         <v>42937</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="6" ht="65" customHeight="1" spans="1:5">
+    <row r="6" ht="65" customHeight="1" spans="1:6">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1891,16 +2045,19 @@
         <v>42937</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="7" ht="65" customHeight="1" spans="1:5">
+    <row r="7" ht="65" customHeight="1" spans="1:6">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1908,16 +2065,19 @@
         <v>42940</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="8" ht="65" customHeight="1" spans="1:5">
+    <row r="8" ht="65" customHeight="1" spans="1:6">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1925,16 +2085,19 @@
         <v>42942</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="9" ht="65" customHeight="1" spans="1:5">
+    <row r="9" ht="65" customHeight="1" spans="1:6">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1942,16 +2105,19 @@
         <v>42942</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
         <v>23</v>
       </c>
-      <c r="E9" t="s">
-        <v>21</v>
+      <c r="F9" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="10" ht="65" customHeight="1" spans="1:5">
+    <row r="10" ht="65" customHeight="1" spans="1:6">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1959,16 +2125,19 @@
         <v>42943</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="11" ht="65" customHeight="1" spans="1:5">
+    <row r="11" ht="65" customHeight="1" spans="1:6">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1976,16 +2145,19 @@
         <v>42948</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="12" ht="65" customHeight="1" spans="1:5">
+    <row r="12" ht="65" customHeight="1" spans="1:6">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1993,16 +2165,19 @@
         <v>42949</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="13" ht="65" customHeight="1" spans="1:4">
+    <row r="13" ht="65" customHeight="1" spans="1:6">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2010,13 +2185,16 @@
         <v>42949</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="F13" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="14" ht="65" customHeight="1" spans="1:5">
+    <row r="14" ht="65" customHeight="1" spans="1:6">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2024,16 +2202,19 @@
         <v>42950</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E14" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="15" ht="65" customHeight="1" spans="1:5">
+    <row r="15" ht="65" customHeight="1" spans="1:6">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2041,16 +2222,19 @@
         <v>42950</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E15" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="16" ht="65" customHeight="1" spans="1:5">
+    <row r="16" ht="65" customHeight="1" spans="1:6">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2058,16 +2242,98 @@
         <v>42951</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="E16" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" ht="65" customHeight="1" spans="1:6">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2">
+        <v>42951</v>
+      </c>
+      <c r="C17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" ht="65" customHeight="1" spans="1:6">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <v>42954</v>
+      </c>
+      <c r="C18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" ht="65" customHeight="1" spans="1:6">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
+        <v>42954</v>
+      </c>
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <v>42954</v>
+      </c>
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F19 F20 F1:F18 F21:F1048576">
+      <formula1>"待执行,已执行"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -2078,7 +2344,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -2095,7 +2361,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>

--- a/3.ehome/06-开发/数据库修改记录.xlsx
+++ b/3.ehome/06-开发/数据库修改记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90">
   <si>
     <t>序号</t>
   </si>
@@ -1042,6 +1042,150 @@
 alter table Bracelet_Info comment '手环信息';
 </t>
   </si>
+  <si>
+    <t>修改字段类型</t>
+  </si>
+  <si>
+    <t>ALTER TABLE `adver_manage`
+MODIFY COLUMN `Display_Time_Interval`  integer(12) NULL DEFAULT NULL COMMENT '开屏广告显示间隔时间：当显示频次类型为间隔*小时显示时才填写' AFTER `Display_Type`;</t>
+  </si>
+  <si>
+    <t>增加会员的应用表</t>
+  </si>
+  <si>
+    <t xml:space="preserve">drop table if exists Account_Application;
+/*==============================================================*/
+/* Table: Account_Application                                   */
+/*==============================================================*/
+create table Account_Application
+(
+   ID                   varchar(64) not null comment '主键',
+   Account_ID           varchar(64) comment '会员ID',
+   Village_Info_ID      varchar(64) comment '楼盘ID',
+   Module_Manage_ID     varchar(64) comment '模块管理ID',
+   Sort_Num             int comment '排序序号',
+   Create_By            varchar(64) comment '录入人',
+   Create_Date          datetime comment '录入时间',
+   Update_By            varchar(64) comment '修改人',
+   Update_Date          datetime comment '修改时间',
+   Remarks              varchar(255) comment '备注',
+   Del_Flag             char(1) comment '删除标记，0：正常；1：删除；2：审核',
+   primary key (ID)
+);
+alter table Account_Application comment '会员的应用';
+</t>
+  </si>
+  <si>
+    <t>用户表添加字段</t>
+  </si>
+  <si>
+    <t>ALTER TABLE `sys_user`
+ADD COLUMN `app_user_phone`  varchar(11) NULL AFTER `village_info_ids`;</t>
+  </si>
+  <si>
+    <t>待执行</t>
+  </si>
+  <si>
+    <t>商户基本信息表修改字段Business_Introduce类型为text</t>
+  </si>
+  <si>
+    <t>ALTER TABLE business_info MODIFY Business_Introduce text</t>
+  </si>
+  <si>
+    <t>字典表中，提出用户优惠券使用状态中的已过期和已冻结状态。</t>
+  </si>
+  <si>
+    <t>DELETE FROM sys_dict  WHERE type = 'use_state_memberdiscount' AND label IN ('已过期', '已冻结');</t>
+  </si>
+  <si>
+    <t>钱包明细表增加字段订单ID，金额字段更改为本金金额字段、赠送金额字段</t>
+  </si>
+  <si>
+    <t>ALTER TABLE Wallet_Detail CHANGE Money Wallet_Principal DECIMAL (16, 2) COMMENT '本金金额',
+ ADD Order_ID VARCHAR (64) COMMENT '订单ID' AFTER Trade_Type,
+ ADD Wallet_Present DECIMAL (16, 2) COMMENT '赠送金额' AFTER Wallet_Principal;</t>
+  </si>
+  <si>
+    <t>新增结算对账单表</t>
+  </si>
+  <si>
+    <t xml:space="preserve">drop table if exists Download_Bill;
+/*==============================================================*/
+/* Table: Download_Bill                                         */
+/*==============================================================*/
+create table Download_Bill
+(
+   ID                   varchar(64) not null comment '主键id',
+   Trade_Time           datetime comment '交易时间',
+   Device_Info          varchar(32) comment '设备号',
+   Transaction_Id       varchar(32) comment '微信订单号',
+   Out_Trade_No         varchar(32) comment '商户订单号',
+   Openid               varchar(128) comment '用户标识',
+   Trade_Type           varchar(16) comment '交易类型，JSAPI--公众号支付、NATIVE--原生扫码支付、APP--app支付、MICROPAY--刷卡支付',
+   Trade_State          varchar(32) comment '交易状态',
+   Bank_Type            varchar(16) comment '付款银行，详见以下页面中银行类型：https://pay.weixin.qq.com/wiki/doc/api/jsapi.php?chapter=4_2',
+   Total_Fee            decimal(16,2) comment '总金额',
+   Product_Name         varchar(128) comment '商品名称',
+   Product_Data         varchar(128) comment '商品数据包',
+   Cost_Fee             decimal(16,2) comment '手续费',
+   Cost_Rate            decimal(16,4) comment '费率',
+   Bill_Type            char(1) comment '对账单类型:0 微信 1 支付宝',
+   Bill_Date            varchar(8) comment '对账单日期',
+   primary key (ID),
+   unique key UNI_DOWNLOADBILL_OUTTRADENO (Out_Trade_No)
+);
+alter table Download_Bill comment '微信、支付宝下载的对账单';
+</t>
+  </si>
+  <si>
+    <t>新增表</t>
+  </si>
+  <si>
+    <t>create table social_msg
+(
+   id                   varchar(64) not null comment 'id',
+   userId               varchar(64) comment '发消息的用户id',
+   userName             varchar(64) comment '发送消息用户名称',
+   toUserId             varchar(64) comment '接受消息用户ID',
+   content              longtext comment '消息内容',
+   isNotice             int comment '是否通知 1:已经通知 0 ：未通知',
+   noticeTime           datetime comment '通知时间',
+   firType              int comment '1：订单消息2：管理员消息：3：邻里圈消息',
+   secType              int comment '1:配送消息2：取消订单3：临期提醒4：团购已消费 5：团购退款  11：公告通知 12：管理员发言  21：@我的消息 22：评论我的消息 23：关注我的消息',
+   isRead               int comment '是否已读 1：已读 0：未读',
+   primary key (id)
+);</t>
+  </si>
+  <si>
+    <t>每日运动纪录表修改Walk_Calorie、Run_Calorie类型为int，增加Total_Number、Total_Mileage、Total_Calorie、Type字段</t>
+  </si>
+  <si>
+    <t>ALTER TABLE Bracelet_Exercise_Record MODIFY Walk_Calorie INT,
+ MODIFY Run_Calorie INT,
+ ADD Total_Number INT COMMENT '总运动步数' AFTER Run_Calorie,
+ ADD Total_Mileage DECIMAL (10, 2) COMMENT '总运动里程' AFTER Total_Number,
+ ADD Total_Calorie INT COMMENT '总运动热量' AFTER Total_Mileage,
+ ADD Type INT COMMENT '运动类型' AFTER Total_Calorie;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALTER TABLE `village_line`
+ADD COLUMN `recom_Set_State`  char(1) NULL AFTER `Set_Time`,
+ADD COLUMN `recom_Set_Time`  datetime NULL AFTER `recom_Set_State`;
+</t>
+  </si>
+  <si>
+    <t>睡眠记录表修改字段Sleep_Start、Sleep_End类型为varchar(64)</t>
+  </si>
+  <si>
+    <t>ALTER TABLE Bracelet_Sleep_Record MODIFY Sleep_Start VARCHAR (64) COMMENT '睡眠时段开始',
+ MODIFY Sleep_End VARCHAR (64) COMMENT '睡眠时段结束';</t>
+  </si>
+  <si>
+    <t>会员的优惠券表增加字段使用的订单ID</t>
+  </si>
+  <si>
+    <t>ALTER TABLE Member_Discount ADD Use_Order_ID VARCHAR (64) COMMENT '使用的订单ID' AFTER Use_State;</t>
+  </si>
 </sst>
 </file>
 
@@ -1049,9 +1193,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1067,13 +1211,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1138,9 +1275,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1201,14 +1337,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1229,61 +1373,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1295,121 +1553,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1443,21 +1587,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1512,6 +1641,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1528,10 +1672,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1540,136 +1684,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1716,8 +1860,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1782,8 +1926,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A1:F27" totalsRowShown="0">
-  <autoFilter ref="A1:F27"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A1:F39" totalsRowShown="0">
+  <autoFilter ref="A1:F39"/>
   <tableColumns count="6">
     <tableColumn id="1" name="序号"/>
     <tableColumn id="2" name="修改时间"/>
@@ -2083,9 +2227,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2570,7 +2714,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" ht="70" customHeight="1" spans="1:6">
+    <row r="25" ht="69.95" customHeight="1" spans="1:6">
       <c r="A25" s="10">
         <v>24</v>
       </c>
@@ -2590,7 +2734,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" ht="70" customHeight="1" spans="1:6">
+    <row r="26" ht="69.95" customHeight="1" spans="1:6">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2610,7 +2754,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" ht="48" customHeight="1" spans="1:6">
+    <row r="27" ht="66" customHeight="1" spans="1:6">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2620,7 +2764,7 @@
       <c r="C27" t="s">
         <v>64</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="3" t="s">
         <v>65</v>
       </c>
       <c r="E27" t="s">
@@ -2630,14 +2774,249 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" ht="39" customHeight="1"/>
-    <row r="29" ht="44" customHeight="1"/>
-    <row r="30" ht="40" customHeight="1"/>
-    <row r="31" ht="44" customHeight="1"/>
-    <row r="32" ht="47" customHeight="1"/>
+    <row r="28" ht="69" customHeight="1" spans="1:6">
+      <c r="A28" s="10">
+        <v>27</v>
+      </c>
+      <c r="B28" s="11">
+        <v>42961</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" ht="75.95" customHeight="1" spans="1:6">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2">
+        <v>42962</v>
+      </c>
+      <c r="C29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" ht="75.95" customHeight="1" spans="1:6">
+      <c r="A30" s="10">
+        <v>29</v>
+      </c>
+      <c r="B30" s="11">
+        <v>42962</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" ht="75.95" customHeight="1" spans="1:6">
+      <c r="A31" s="10">
+        <v>30</v>
+      </c>
+      <c r="B31" s="11">
+        <v>42963</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" ht="68.1" customHeight="1" spans="1:6">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2">
+        <v>42963</v>
+      </c>
+      <c r="C32" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" ht="78" customHeight="1" spans="1:6">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2">
+        <v>42963</v>
+      </c>
+      <c r="C33" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E33" t="s">
+        <v>33</v>
+      </c>
+      <c r="F33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" ht="81" customHeight="1" spans="1:6">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2">
+        <v>42963</v>
+      </c>
+      <c r="C34" t="s">
+        <v>79</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" ht="87" customHeight="1" spans="1:6">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="14">
+        <v>42963</v>
+      </c>
+      <c r="C35" t="s">
+        <v>81</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E35" t="s">
+        <v>59</v>
+      </c>
+      <c r="F35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" ht="87" customHeight="1" spans="1:6">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2">
+        <v>42963</v>
+      </c>
+      <c r="C36" t="s">
+        <v>83</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E36" t="s">
+        <v>33</v>
+      </c>
+      <c r="F36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" ht="67.5" customHeight="1" spans="1:6">
+      <c r="A37" s="10">
+        <v>36</v>
+      </c>
+      <c r="B37" s="11">
+        <v>42965</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" ht="78" customHeight="1" spans="1:6">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="11">
+        <v>42965</v>
+      </c>
+      <c r="C38" t="s">
+        <v>86</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E38" t="s">
+        <v>33</v>
+      </c>
+      <c r="F38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" ht="78" customHeight="1" spans="1:6">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="11">
+        <v>42965</v>
+      </c>
+      <c r="C39" t="s">
+        <v>88</v>
+      </c>
+      <c r="D39" t="s">
+        <v>89</v>
+      </c>
+      <c r="E39" t="s">
+        <v>33</v>
+      </c>
+      <c r="F39" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F26 F27 F1:F25 F28:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F38 F39 F1:F37 F40:F1048576">
       <formula1>"待执行,已执行"</formula1>
     </dataValidation>
   </dataValidations>

--- a/3.ehome/06-开发/数据库修改记录.xlsx
+++ b/3.ehome/06-开发/数据库修改记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="24180" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89">
   <si>
     <t>序号</t>
   </si>
@@ -792,7 +792,7 @@
     <t>模块表增加字段</t>
   </si>
   <si>
-    <t>ALTER TABLE module_manage ADD Phone_Module_Code VARCHAR(2)  AFTER Business_Category_Dict_ID;</t>
+    <t>ALTER TABLE Module_Manage ADD Phone_Module_Code VARCHAR (2) COMMENT '手机端模块编码' AFTER Business_Category_Dict_ID;</t>
   </si>
   <si>
     <t>张良</t>
@@ -1083,9 +1083,6 @@
 ADD COLUMN `app_user_phone`  varchar(11) NULL AFTER `village_info_ids`;</t>
   </si>
   <si>
-    <t>待执行</t>
-  </si>
-  <si>
     <t>商户基本信息表修改字段Business_Introduce类型为text</t>
   </si>
   <si>
@@ -1192,10 +1189,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1215,38 +1212,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1260,63 +1241,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1336,8 +1262,79 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1352,7 +1349,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1373,187 +1370,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1564,45 +1561,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1617,26 +1575,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1659,8 +1597,67 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1672,10 +1669,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1684,136 +1681,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2230,7 +2227,7 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2831,7 +2828,7 @@
         <v>28</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" ht="75.95" customHeight="1" spans="1:6">
@@ -2842,16 +2839,16 @@
         <v>42963</v>
       </c>
       <c r="C31" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31" s="10" t="s">
         <v>73</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>74</v>
       </c>
       <c r="E31" s="10" t="s">
         <v>23</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" ht="68.1" customHeight="1" spans="1:6">
@@ -2862,16 +2859,16 @@
         <v>42963</v>
       </c>
       <c r="C32" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="E32" t="s">
         <v>8</v>
       </c>
       <c r="F32" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" ht="78" customHeight="1" spans="1:6">
@@ -2882,10 +2879,10 @@
         <v>42963</v>
       </c>
       <c r="C33" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="E33" t="s">
         <v>33</v>
@@ -2902,10 +2899,10 @@
         <v>42963</v>
       </c>
       <c r="C34" t="s">
+        <v>78</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="E34" t="s">
         <v>8</v>
@@ -2922,10 +2919,10 @@
         <v>42963</v>
       </c>
       <c r="C35" t="s">
+        <v>80</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="E35" t="s">
         <v>59</v>
@@ -2942,10 +2939,10 @@
         <v>42963</v>
       </c>
       <c r="C36" t="s">
+        <v>82</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>84</v>
       </c>
       <c r="E36" t="s">
         <v>33</v>
@@ -2965,13 +2962,13 @@
         <v>55</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E37" s="10" t="s">
         <v>28</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" ht="78" customHeight="1" spans="1:6">
@@ -2982,10 +2979,10 @@
         <v>42965</v>
       </c>
       <c r="C38" t="s">
+        <v>85</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="E38" t="s">
         <v>33</v>
@@ -3002,10 +2999,10 @@
         <v>42965</v>
       </c>
       <c r="C39" t="s">
+        <v>87</v>
+      </c>
+      <c r="D39" t="s">
         <v>88</v>
-      </c>
-      <c r="D39" t="s">
-        <v>89</v>
       </c>
       <c r="E39" t="s">
         <v>33</v>

--- a/3.ehome/06-开发/数据库修改记录.xlsx
+++ b/3.ehome/06-开发/数据库修改记录.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="101">
   <si>
     <t>序号</t>
   </si>
@@ -1053,29 +1053,6 @@
     <t>增加会员的应用表</t>
   </si>
   <si>
-    <t xml:space="preserve">drop table if exists Account_Application;
-/*==============================================================*/
-/* Table: Account_Application                                   */
-/*==============================================================*/
-create table Account_Application
-(
-   ID                   varchar(64) not null comment '主键',
-   Account_ID           varchar(64) comment '会员ID',
-   Village_Info_ID      varchar(64) comment '楼盘ID',
-   Module_Manage_ID     varchar(64) comment '模块管理ID',
-   Sort_Num             int comment '排序序号',
-   Create_By            varchar(64) comment '录入人',
-   Create_Date          datetime comment '录入时间',
-   Update_By            varchar(64) comment '修改人',
-   Update_Date          datetime comment '修改时间',
-   Remarks              varchar(255) comment '备注',
-   Del_Flag             char(1) comment '删除标记，0：正常；1：删除；2：审核',
-   primary key (ID)
-);
-alter table Account_Application comment '会员的应用';
-</t>
-  </si>
-  <si>
     <t>用户表添加字段</t>
   </si>
   <si>
@@ -1183,18 +1160,111 @@
   <si>
     <t>ALTER TABLE Member_Discount ADD Use_Order_ID VARCHAR (64) COMMENT '使用的订单ID' AFTER Use_State;</t>
   </si>
+  <si>
+    <t>增加握手金融数据日志表</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CREATE TABLE `wsbank_data_log` (
+  `id` varchar(64) NOT NULL COMMENT '主键',
+  `Receive_Data` longtext DEFAULT NULL COMMENT '接收数据',
+  `Receive_Data_Type` varchar(2) DEFAULT NULL COMMENT '接收数据类型 0用户详情,1产品流水',
+  `Check_State` varchar(2) DEFAULT NULL COMMENT '匹配状态检查 0不匹配,1匹配',
+  `create_by` varchar(64) DEFAULT NULL COMMENT '录入人',
+  `create_date` datetime DEFAULT NULL COMMENT '录入时间',
+  `update_by` varchar(64) DEFAULT NULL COMMENT '修改人',
+  `update_date` datetime DEFAULT NULL COMMENT '修改时间',
+  PRIMARY KEY (`id`)
+) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT='握手金融数据日志';
+</t>
+  </si>
+  <si>
+    <t>刘强</t>
+  </si>
+  <si>
+    <t>增加握手金融用户信息补充表</t>
+  </si>
+  <si>
+    <t>CREATE TABLE `wsbank_user_detail` (
+  `id` varchar(64) DEFAULT NULL COMMENT '主键',
+  `Member_Id` varchar(64) DEFAULT NULL COMMENT '会员ID',
+  `Customer_Id` varchar(10) DEFAULT NULL COMMENT '关联的客户id',
+  `Customer_Name` varchar(30) DEFAULT NULL COMMENT '姓名',
+  `Phone_Number` varchar(15) DEFAULT NULL COMMENT '手机号',
+  `Card_Code` varchar(18) DEFAULT NULL COMMENT '身份证号',
+  `Bank_Card` varchar(16) DEFAULT NULL COMMENT '银行账号',
+  `create_by` varchar(64) DEFAULT NULL COMMENT '录入人',
+  `create_date` datetime DEFAULT NULL COMMENT '录入时间',
+  `update_by` varchar(64) DEFAULT NULL COMMENT '修改人',
+  `update_date` datetime DEFAULT NULL COMMENT '修改时间'
+) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT='用户信息补充表';</t>
+  </si>
+  <si>
+    <t>增加握手金融产品流水表</t>
+  </si>
+  <si>
+    <t>CREATE TABLE `wsbank_product_flow` (
+  `id` varchar(64) NOT NULL COMMENT '主键',
+  `Member_Id` varchar(64) DEFAULT NULL COMMENT '会员ID',
+  `Phone_Number` varchar(15) DEFAULT NULL COMMENT '电话号',
+  `Create_Time` datetime DEFAULT NULL COMMENT '时间',
+  `Account` decimal(16,2) DEFAULT NULL COMMENT '金额',
+  `Product_Flow_Num` varchar(30) DEFAULT NULL COMMENT '流水号',
+  `Product_Id` varchar(30) DEFAULT NULL COMMENT '标的id',
+  `create_by` varchar(64) DEFAULT NULL COMMENT '录入人',
+  `create_date` datetime DEFAULT NULL COMMENT '录入时间',
+  `update_by` varchar(64) DEFAULT NULL COMMENT '修改人',
+  `update_date` datetime DEFAULT NULL COMMENT '修改时间',
+  PRIMARY KEY (`id`)
+) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT='产品流水';</t>
+  </si>
+  <si>
+    <t>增加remark字段</t>
+  </si>
+  <si>
+    <t>ALTER TABLE `social_msg`
+ADD COLUMN `remark`  longtext NULL AFTER `isRead`;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">drop table if exists Account_Application;
+/*==============================================================*/
+/* Table: Account_Application                                   */
+/*==============================================================*/
+create table Account_Application
+(
+   ID                   varchar(64) not null comment '主键',
+   Account_ID           varchar(64) comment '会员ID',
+   Village_Info_ID      varchar(64) comment '楼盘ID',
+   Module_Manage_ID     varchar(64) comment '模块管理ID',
+   Sort_Num             int comment '排序序号',
+   Create_By            varchar(64) comment '录入人',
+   Create_Date          datetime comment '录入时间',
+   Update_By            varchar(64) comment '修改人',
+   Update_Date          datetime comment '修改时间',
+   Remarks              varchar(255) comment '备注',
+   Del_Flag             char(1) comment '删除标记，0：正常；1：删除；2：审核',
+   primary key (ID)
+);
+alter table Account_Application comment '会员的应用';
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALTER TABLE module_manage  MODIFY COLUMN Module_Type varchar(64) COMMENT '模块类别：1社区  2生活 3手机';</t>
+  </si>
+  <si>
+    <t>修改模块管理表中【模块类别】字段注释</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈翔宇</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1212,150 +1282,19 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1368,194 +1307,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1563,254 +1316,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1827,22 +1338,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="44" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="44" applyNumberFormat="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="44" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="44" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="44" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
@@ -1861,58 +1372,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="常规 2 2" xfId="44"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="46" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="48" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
+    <cellStyle name="常规 2 2" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1923,8 +1387,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A1:F39" totalsRowShown="0">
-  <autoFilter ref="A1:F39"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A1:F44" totalsRowShown="0">
+  <autoFilter ref="A1:F44"/>
   <tableColumns count="6">
     <tableColumn id="1" name="序号"/>
     <tableColumn id="2" name="修改时间"/>
@@ -2218,19 +1682,17 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="10.75" customWidth="1"/>
     <col min="3" max="3" width="34.5" customWidth="1"/>
@@ -2257,7 +1719,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="65.1" customHeight="1" spans="1:6">
+    <row r="2" spans="1:6" ht="65.099999999999994" customHeight="1">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2277,7 +1739,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" ht="65.1" customHeight="1" spans="1:6">
+    <row r="3" spans="1:6" ht="65.099999999999994" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2297,7 +1759,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="65.1" customHeight="1" spans="1:6">
+    <row r="4" spans="1:6" ht="65.099999999999994" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2314,7 +1776,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" ht="65.1" customHeight="1" spans="1:6">
+    <row r="5" spans="1:6" ht="65.099999999999994" customHeight="1">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2334,7 +1796,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" ht="65.1" customHeight="1" spans="1:6">
+    <row r="6" spans="1:6" ht="65.099999999999994" customHeight="1">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2354,7 +1816,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" ht="65.1" customHeight="1" spans="1:6">
+    <row r="7" spans="1:6" ht="65.099999999999994" customHeight="1">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2374,7 +1836,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" ht="65.1" customHeight="1" spans="1:6">
+    <row r="8" spans="1:6" ht="65.099999999999994" customHeight="1">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2394,7 +1856,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" ht="65.1" customHeight="1" spans="1:6">
+    <row r="9" spans="1:6" ht="65.099999999999994" customHeight="1">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2414,7 +1876,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" ht="65.1" customHeight="1" spans="1:6">
+    <row r="10" spans="1:6" ht="65.099999999999994" customHeight="1">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2434,7 +1896,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" ht="65.1" customHeight="1" spans="1:6">
+    <row r="11" spans="1:6" ht="65.099999999999994" customHeight="1">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2454,7 +1916,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" ht="65.1" customHeight="1" spans="1:6">
+    <row r="12" spans="1:6" ht="65.099999999999994" customHeight="1">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2474,7 +1936,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" ht="65.1" customHeight="1" spans="1:6">
+    <row r="13" spans="1:6" ht="65.099999999999994" customHeight="1">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2491,7 +1953,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" ht="65.1" customHeight="1" spans="1:6">
+    <row r="14" spans="1:6" ht="65.099999999999994" customHeight="1">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2511,7 +1973,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" ht="65.1" customHeight="1" spans="1:6">
+    <row r="15" spans="1:6" ht="65.099999999999994" customHeight="1">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2531,7 +1993,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" ht="65.1" customHeight="1" spans="1:6">
+    <row r="16" spans="1:6" ht="65.099999999999994" customHeight="1">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2551,7 +2013,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" ht="65.1" customHeight="1" spans="1:6">
+    <row r="17" spans="1:6" ht="65.099999999999994" customHeight="1">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2571,7 +2033,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" ht="65.1" customHeight="1" spans="1:6">
+    <row r="18" spans="1:6" ht="65.099999999999994" customHeight="1">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2591,7 +2053,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" ht="65.1" customHeight="1" spans="1:6">
+    <row r="19" spans="1:6" ht="65.099999999999994" customHeight="1">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2611,7 +2073,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" ht="54" spans="1:6">
+    <row r="20" spans="1:6" ht="54">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2631,7 +2093,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" ht="69" customHeight="1" spans="1:6">
+    <row r="21" spans="1:6" ht="69" customHeight="1">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -2651,7 +2113,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" ht="72" customHeight="1" spans="1:6">
+    <row r="22" spans="1:6" ht="72" customHeight="1">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -2671,7 +2133,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" ht="66" customHeight="1" spans="1:6">
+    <row r="23" spans="1:6" ht="66" customHeight="1">
       <c r="A23" s="10">
         <v>22</v>
       </c>
@@ -2691,7 +2153,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" ht="63" customHeight="1" spans="1:6">
+    <row r="24" spans="1:6" ht="63" customHeight="1">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2711,7 +2173,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" ht="69.95" customHeight="1" spans="1:6">
+    <row r="25" spans="1:6" ht="69.95" customHeight="1">
       <c r="A25" s="10">
         <v>24</v>
       </c>
@@ -2731,7 +2193,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" ht="69.95" customHeight="1" spans="1:6">
+    <row r="26" spans="1:6" ht="69.95" customHeight="1">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2751,7 +2213,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" ht="66" customHeight="1" spans="1:6">
+    <row r="27" spans="1:6" ht="66" customHeight="1">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2771,7 +2233,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" ht="69" customHeight="1" spans="1:6">
+    <row r="28" spans="1:6" ht="69" customHeight="1">
       <c r="A28" s="10">
         <v>27</v>
       </c>
@@ -2791,7 +2253,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" ht="75.95" customHeight="1" spans="1:6">
+    <row r="29" spans="1:6" ht="75.95" customHeight="1">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2802,7 +2264,7 @@
         <v>68</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="E29" t="s">
         <v>33</v>
@@ -2811,7 +2273,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" ht="75.95" customHeight="1" spans="1:6">
+    <row r="30" spans="1:6" ht="75.95" customHeight="1">
       <c r="A30" s="10">
         <v>29</v>
       </c>
@@ -2819,10 +2281,10 @@
         <v>42962</v>
       </c>
       <c r="C30" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="12" t="s">
         <v>70</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>71</v>
       </c>
       <c r="E30" s="10" t="s">
         <v>28</v>
@@ -2831,7 +2293,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" ht="75.95" customHeight="1" spans="1:6">
+    <row r="31" spans="1:6" ht="75.95" customHeight="1">
       <c r="A31" s="10">
         <v>30</v>
       </c>
@@ -2839,10 +2301,10 @@
         <v>42963</v>
       </c>
       <c r="C31" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D31" s="10" t="s">
         <v>72</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>73</v>
       </c>
       <c r="E31" s="10" t="s">
         <v>23</v>
@@ -2851,7 +2313,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" ht="68.1" customHeight="1" spans="1:6">
+    <row r="32" spans="1:6" ht="68.099999999999994" customHeight="1">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2859,10 +2321,10 @@
         <v>42963</v>
       </c>
       <c r="C32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="E32" t="s">
         <v>8</v>
@@ -2871,7 +2333,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" ht="78" customHeight="1" spans="1:6">
+    <row r="33" spans="1:6" ht="78" customHeight="1">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2879,10 +2341,10 @@
         <v>42963</v>
       </c>
       <c r="C33" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="E33" t="s">
         <v>33</v>
@@ -2891,7 +2353,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" ht="81" customHeight="1" spans="1:6">
+    <row r="34" spans="1:6" ht="81" customHeight="1">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2899,10 +2361,10 @@
         <v>42963</v>
       </c>
       <c r="C34" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="E34" t="s">
         <v>8</v>
@@ -2911,7 +2373,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" ht="87" customHeight="1" spans="1:6">
+    <row r="35" spans="1:6" ht="87" customHeight="1">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2919,10 +2381,10 @@
         <v>42963</v>
       </c>
       <c r="C35" t="s">
+        <v>79</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="E35" t="s">
         <v>59</v>
@@ -2931,7 +2393,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" ht="87" customHeight="1" spans="1:6">
+    <row r="36" spans="1:6" ht="87" customHeight="1">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2939,10 +2401,10 @@
         <v>42963</v>
       </c>
       <c r="C36" t="s">
+        <v>81</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="E36" t="s">
         <v>33</v>
@@ -2951,7 +2413,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" ht="67.5" customHeight="1" spans="1:6">
+    <row r="37" spans="1:6" ht="67.5" customHeight="1">
       <c r="A37" s="10">
         <v>36</v>
       </c>
@@ -2962,7 +2424,7 @@
         <v>55</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E37" s="10" t="s">
         <v>28</v>
@@ -2971,7 +2433,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" ht="78" customHeight="1" spans="1:6">
+    <row r="38" spans="1:6" ht="78" customHeight="1">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2979,10 +2441,10 @@
         <v>42965</v>
       </c>
       <c r="C38" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="E38" t="s">
         <v>33</v>
@@ -2991,7 +2453,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" ht="78" customHeight="1" spans="1:6">
+    <row r="39" spans="1:6" ht="78" customHeight="1">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2999,10 +2461,10 @@
         <v>42965</v>
       </c>
       <c r="C39" t="s">
+        <v>86</v>
+      </c>
+      <c r="D39" t="s">
         <v>87</v>
-      </c>
-      <c r="D39" t="s">
-        <v>88</v>
       </c>
       <c r="E39" t="s">
         <v>33</v>
@@ -3011,15 +2473,115 @@
         <v>9</v>
       </c>
     </row>
+    <row r="40" spans="1:6" ht="81" customHeight="1">
+      <c r="A40" s="10">
+        <v>39</v>
+      </c>
+      <c r="B40" s="11">
+        <v>42969</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="81.75" customHeight="1">
+      <c r="A41" s="10">
+        <v>40</v>
+      </c>
+      <c r="B41" s="11">
+        <v>42969</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="86.25" customHeight="1">
+      <c r="A42" s="10">
+        <v>41</v>
+      </c>
+      <c r="B42" s="11">
+        <v>42969</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="27">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="11">
+        <v>42969</v>
+      </c>
+      <c r="C43" t="s">
+        <v>95</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E43" t="s">
+        <v>59</v>
+      </c>
+      <c r="F43" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="10">
+        <v>43</v>
+      </c>
+      <c r="B44" s="11">
+        <v>42970</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F38 F39 F1:F37 F40:F1048576">
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576">
       <formula1>"待执行,已执行"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -3027,35 +2589,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>